--- a/medicine/Enfance/Philippe_Carrese/Philippe_Carrese.xlsx
+++ b/medicine/Enfance/Philippe_Carrese/Philippe_Carrese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Carrese, né le 6 avril 1956 à Marseille et mort dans la même ville le 5 mai 2019[1],[2], est un écrivain, scénariste, réalisateur, compositeur, musicien, chroniqueur et dessinateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Carrese, né le 6 avril 1956 à Marseille et mort dans la même ville le 5 mai 2019 est un écrivain, scénariste, réalisateur, compositeur, musicien, chroniqueur et dessinateur français.
 </t>
         </is>
       </c>
@@ -513,17 +525,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et enfance
-Né en 1956 à Marseille d'une famille d'immigrés napolitains, Philippe Carrese grandit dans le quartier populaire du Panier[3],[4].
-Scolarité et formation
-Il fait sa scolarité à Saint-Joseph les Maristes, école catholique située dans le quartier de la place Castellane, puis il poursuit ses études dans un établissement public (Marseilleveyre) où il décroche un bac scientifique. En 1974, il intègre pour trois ans l’IDHEC (Institut des hautes études cinématographiques), à Paris. « À sa sortie, il travaille comme premier assistant réalisateur (1977-1983, puis réalisateur (publicité, documentaires, cinéma, animation, télévision). Il est aussi chef-opérateur (1990-1997) et compositeur de musique de films et de génériques (1979-1984 et 1991-1999) »[5].
-Littérature
-Ayant son propre univers dans le cinéma, il décide d’approfondir sa carrière en se tournant vers la littérature. Il se spécialise alors dans l'écriture de polars grâce auxquels il sera édité chez Fleuve noir, L'Écailler du Sud, Plon, Florent Massot, Syros chez qui il publie également des ouvrages de littérature d'enfance et de jeunesse qui relèvent du genre policier. Ses derniers livres ont été publiés aux éditions de l'Aube.
-Il s'inspire de ses expériences personnelles et de ce qui l'entoure pour écrire ses romans. C’est ainsi que dans ses livres on retrouve des anecdotes et caricatures marseillaises. Certains de ses dix-neuf polars sont inspirés de faits réels qui se sont déroulés à Marseille dans les années 1990. Il s'y mêle humour noir, autodérision, et critique des comportements locaux[6],[7].
-À partir de 2009, il change de genre et publie "Enclave" aux éditions PLON. Celui-ci figure dans la première liste de sélection du prix Médicis la même année[8]. Ce même roman est retenu dans la sélection du "Prix Littéraire des lycéens et apprentis de la région PACA" en 2010/2011[9]. 
-La Saga Belonore, fresque familiale de quatre romans, est publiée aux éditions de l''Aube et sera très bien accueillie par la critique[10].
-Mort
-Philippe Carrese réalise les épisodes de Plus belle la vie jusqu'au 22 février 2019 (n°3740) avant de devoir arrêter pour raisons de santé[11].
+          <t>Origines et enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1956 à Marseille d'une famille d'immigrés napolitains, Philippe Carrese grandit dans le quartier populaire du Panier,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Scolarité et formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait sa scolarité à Saint-Joseph les Maristes, école catholique située dans le quartier de la place Castellane, puis il poursuit ses études dans un établissement public (Marseilleveyre) où il décroche un bac scientifique. En 1974, il intègre pour trois ans l’IDHEC (Institut des hautes études cinématographiques), à Paris. « À sa sortie, il travaille comme premier assistant réalisateur (1977-1983, puis réalisateur (publicité, documentaires, cinéma, animation, télévision). Il est aussi chef-opérateur (1990-1997) et compositeur de musique de films et de génériques (1979-1984 et 1991-1999) ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant son propre univers dans le cinéma, il décide d’approfondir sa carrière en se tournant vers la littérature. Il se spécialise alors dans l'écriture de polars grâce auxquels il sera édité chez Fleuve noir, L'Écailler du Sud, Plon, Florent Massot, Syros chez qui il publie également des ouvrages de littérature d'enfance et de jeunesse qui relèvent du genre policier. Ses derniers livres ont été publiés aux éditions de l'Aube.
+Il s'inspire de ses expériences personnelles et de ce qui l'entoure pour écrire ses romans. C’est ainsi que dans ses livres on retrouve des anecdotes et caricatures marseillaises. Certains de ses dix-neuf polars sont inspirés de faits réels qui se sont déroulés à Marseille dans les années 1990. Il s'y mêle humour noir, autodérision, et critique des comportements locaux,.
+À partir de 2009, il change de genre et publie "Enclave" aux éditions PLON. Celui-ci figure dans la première liste de sélection du prix Médicis la même année. Ce même roman est retenu dans la sélection du "Prix Littéraire des lycéens et apprentis de la région PACA" en 2010/2011. 
+La Saga Belonore, fresque familiale de quatre romans, est publiée aux éditions de l''Aube et sera très bien accueillie par la critique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Carrese réalise les épisodes de Plus belle la vie jusqu'au 22 février 2019 (n°3740) avant de devoir arrêter pour raisons de santé.
 Le 5 mai 2019, il meurt à 63 ans d'un cancer foudroyant à la clinique Sainte Élisabeth (Marseille).
 L'épisode n° 3791 de Plus belle la vie diffusé le 6 mai 2019 lui est dédié.
 Ses obsèques ont eu lieu à Marseille le 11 mai 2019.
@@ -532,34 +654,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Trois jours d'engatse, Méditorial, collection Misteri, 1994 ; réédition, Fleuve Noir, 1995  (ISBN 2-265-05716-9) ; réédition, Pocket no 11559, 2002  (ISBN 2-266-12126-X) ; réédition, Éditions de l'Aube, L'Aube noire poche, 2014  (ISBN 978-2-8159-1103-0)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Trois jours d'engatse, Méditorial, collection Misteri, 1994 ; réédition, Fleuve Noir, 1995  (ISBN 2-265-05716-9) ; réédition, Pocket no 11559, 2002  (ISBN 2-266-12126-X) ; réédition, Éditions de l'Aube, L'Aube noire poche, 2014  (ISBN 978-2-8159-1103-0)
 Pet de mouche et la Princesse du désert, Fleuve noir no 27, 1997  (ISBN 2-265-06119-0)
 Tue-les, à chaque fois, Fleuve noir no 68, 1999  (ISBN 2-265-06541-2)
 Filet garni, Fleuve Noir, 1996  (ISBN 2-265-05715-0)
@@ -578,107 +705,321 @@
 Retour à San Catello, Éditions de l'Aube, coll. « Regards croisés », 2015  (ISBN 978-2-8159-1204-4)
 La légende Belonore, Éditions de l'Aube, coll. « Regards croisés », 2016  (ISBN 978-2-815-91445-1)
 Tango à la romaine, Éditions de l'Aube, coll. « Regards croisés », 2019  (ISBN 978-2-815-93186-1)
-La famille Belonore, Éditions de l'Aube, coll. « Regards croisés », 2019  (ISBN 978-2-8159-3547-0)
-Littérature d'enfance et de jeunesse
-Série Marseille, quartiers sud
-La Grotte de l'aviateur, Syros jeunesse, coll. « Souris noire », 2003  (ISBN 2-7485-0236-1)
+La famille Belonore, Éditions de l'Aube, coll. « Regards croisés », 2019  (ISBN 978-2-8159-3547-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Marseille, quartiers sud</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Grotte de l'aviateur, Syros jeunesse, coll. « Souris noire », 2003  (ISBN 2-7485-0236-1)
 Le Vol de la momie, Syros jeunesse, coll. « Souris noire », 2005  (ISBN 2-7485-0374-0)
 Le Scénario de la mort, Syros jeunesse, coll. « Souris noire », 2006  (ISBN 2-7485-0463-1)
 La Malédiction de l'enclume, Syros jeunesse, coll. « Souris noire », 2007  (ISBN 978-2-7485-0537-5)
 Le Jardin des délices, Syros jeunesse, coll. « Souris noire », 2008  (ISBN 978-2-7485-0718-8)
 Le Point de rupture, Syros jeunesse, coll. « Souris noire », 2009  (ISBN 978-2-74-850853-6)
-Le Fantôme de la bastide, Syros jeunesse, coll. « Souris noire », 2010  (ISBN 978-2-7485-0906-9)
-Autres publications
-Le Petit Lexique de ma-belle-Provence-que-j'aime, J. Faffitte, 1996 (en collaboration avec Jean-Pierre Cassely)  (ISBN 2-86276-304-7)
-The Guide of The Provence, L'écailler du sud, 2001 (en collaboration avec Jean-Pierre Cassely)[12]
+Le Fantôme de la bastide, Syros jeunesse, coll. « Souris noire », 2010  (ISBN 978-2-7485-0906-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Petit Lexique de ma-belle-Provence-que-j'aime, J. Faffitte, 1996 (en collaboration avec Jean-Pierre Cassely)  (ISBN 2-86276-304-7)
+The Guide of The Provence, L'écailler du sud, 2001 (en collaboration avec Jean-Pierre Cassely)
 Marseille, du noir dans le jaune, Autrement, 2001  (ISBN 2-7467-0088-3)
-Le Tambour du diable, Les 400 Coups, 2002 illustré par Jacques Ferrandez  (ISBN 2-8459-6051-4)
-Illustrations
-Place aux huiles, L'Écailler du Sud, 2005  (ISBN 2-914264-79-8)
+Le Tambour du diable, Les 400 Coups, 2002 illustré par Jacques Ferrandez  (ISBN 2-8459-6051-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Place aux huiles, L'Écailler du Sud, 2005  (ISBN 2-914264-79-8)
 Marseille croquée par, Àmarseille éditeur, coll. « Portrait d'une ville », 2007  (ISBN 2-915332-19-3)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>2009 : Plus belle la vie (saison 5) - rôle : Mario</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Téléfilms
-1986 : Sammy
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1986 : Sammy
 1986 : Fromage et dessert
 1987 : La Guerre des Rocks
 1987 : La vente continue pendant les travaux
 1988 : Josy Coiffure
 1990 : Conrad 2 &amp; 3 (le Radjah des mers)
-2003 : Malaterra[13]
+2003 : Malaterra
 2005 : Liberata
 2006 : Contre la montre
 2007 : L'Arche de Babel
 2009 : Les filles du désert
-2012 : Coup de feu
-Série télévisée
-1984-1986 : BZZZ...[14]
-1993 : Bazar[15]
-1996 : Le petit lexique de ma belle Provence que j'aime[16]
-2000 : La Pêche au sargail[17]
-2006-2019 : Plus belle la vie
-Longs métrages
-2011 : Cassos[18]
-2014 : Comme un rat[19]
-Courts métrages
-1977 : Deadline
+2012 : Coup de feu</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1984-1986 : BZZZ...
+1993 : Bazar
+1996 : Le petit lexique de ma belle Provence que j'aime
+2000 : La Pêche au sargail
+2006-2019 : Plus belle la vie</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Longs métrages</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2011 : Cassos
+2014 : Comme un rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Courts métrages</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1977 : Deadline
 1984 : Pourquoi vouloir mourir
 1989 : La ronde
 1990 : Expedition Neopolis
@@ -696,9 +1037,43 @@
 1997 : Hercule, Hermès et Josiane
 1998 : L’alibi
 1999 : Le Banc Jean Charles Gil
-1999 : René, pas Rémi[20]
-Documentaires
-1985 : Les parcs Regionnaux
+1999 : René, pas Rémi</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1985 : Les parcs Regionnaux
 1988 : L'âme de fond : le rire
 1989 : Un défi au coeur des équilibres, la foret
 1990 : Orchestre des jeunes de la méditerranée
@@ -719,15 +1094,49 @@
 2001 : Parla
 2001 : Histoire de docks
 2002 : Massilia trop puissant
-2006 : Les parrains de la côte[21]
+2006 : Les parrains de la côte
 2008 : Méditerranée au coeur : Tanger
 2013 : Méditerranée au coeur : Marseille
-2015 : Et toi, t'es tatoué où ?[22]
-2015 : Le jeu du cheval[23]
-2018 : Marseille l'italienne[24]
-2019 :  Lieux de crime
-Institutionnels
-1988 : Odyssée pour l'entreprise
+2015 : Et toi, t'es tatoué où ?
+2015 : Le jeu du cheval
+2018 : Marseille l'italienne
+2019 :  Lieux de crime</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Institutionnels</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1988 : Odyssée pour l'entreprise
 1988 : Fréjus
 1991 : Chorus
 1991 : Film Macif
@@ -751,9 +1160,43 @@
 1998 : Chronic insomnia
 2002 : C'est un métier
 2002 : Sapeurs Forestiers
-2002 : 17 projets pour Marseille
-Magazines
-1984-1987 : Attendez pour la faire la vaisselle / Poum Poum Tchac
+2002 : 17 projets pour Marseille</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Magazines</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1984-1987 : Attendez pour la faire la vaisselle / Poum Poum Tchac
 1987-1989 : Meridiennes
 1993 : Cité 13
 1993 : 13 sur DISS
@@ -774,9 +1217,43 @@
 1999 : Question d'identité
 2000 : Elles ont toujours raison
 2001 : La nave va
-2002-2007 : Coté maison
-Captations
-1991 : Concerto per il santo padre
+2002-2007 : Coté maison</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Réalisation</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Captations</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1991 : Concerto per il santo padre
 1994 : Festival des polyphonies de Calvi
 1994 : Gainsbourg - Ballet de Roland Petit
 1995 : Massilia Sound System - en concert a Aix
@@ -791,64 +1268,71 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Polar Blues 1 : Rouge Sumac, Pias France, 1998</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Musique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compositions Musiques de Films
-La ville, la nuit - Téléfilm réalisé par R. Forissier - 1978
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Compositions Musiques de Films</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>La ville, la nuit - Téléfilm réalisé par R. Forissier - 1978
 Une étoile dans la neige - Téléfilm réalisé par D. Masson - 1978
 Génériques FR3 Cote d'Azur - J.T. et magazines - de 1979 à 1982
 La mouette... d'après Tchekhov - mise en scène par A. Vouyoucas - 1980
@@ -868,47 +1352,83 @@
 Malatèrra - composé par Philippe Carrese, Olivier Stalla et Philippe Troisi - 2003
 Liberata - composé par Philippe Carrese, Olivier Stalla, Philippe Troisi, Christophe Leloil et Raphael Imbert - 2005
 L'arche de babel - composé par Philippe Carrese, Olivier Stalla et Raphael Imbert - 2007
-Cassos[25] - Composé par Bruno Carrese et Philippe Carrese - 2011
+Cassos - Composé par Bruno Carrese et Philippe Carrese - 2011
 Et toi ? t'es tatoué où? - Composé par Philippe Carrese et Bruno Carrese - 2016
-Le jeu du cheval[26] - Composé par Philippe Carrese et Bruno Carrese - 2017
-Marseille L'italienne[27] - Composé par Philippe Carrese avec Solange Baron à l'accordéon &amp; Bruno Carrese aux percussions  - 2018
-Lieux de Crimes - Composé par Philippe Carrese et Bruno Carrese, avec à la trompette Christophe Leloil et à l'accordéon Solange Baron - 2018
-Musique live
-En 2009, avec ses collègues musiciens Jérôme Alexandre et Stéphane Rampal, Il crée une formation appelée Carrese &amp; Friends[28]. Ce groupe de musique à géometrie variable jouera jusqu'en novembre 2018 dans différents lieux de la région Sud. Son répertoire est issu des standards rock et funk des années 70 80 90. À la suite du décès de Philippe Carrese, les membres fondateurs décident de continuer sous l'appellation Cover Garden.
+Le jeu du cheval - Composé par Philippe Carrese et Bruno Carrese - 2017
+Marseille L'italienne - Composé par Philippe Carrese avec Solange Baron à l'accordéon &amp; Bruno Carrese aux percussions  - 2018
+Lieux de Crimes - Composé par Philippe Carrese et Bruno Carrese, avec à la trompette Christophe Leloil et à l'accordéon Solange Baron - 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Musique live</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, avec ses collègues musiciens Jérôme Alexandre et Stéphane Rampal, Il crée une formation appelée Carrese &amp; Friends. Ce groupe de musique à géometrie variable jouera jusqu'en novembre 2018 dans différents lieux de la région Sud. Son répertoire est issu des standards rock et funk des années 70 80 90. À la suite du décès de Philippe Carrese, les membres fondateurs décident de continuer sous l'appellation Cover Garden.
 En 2009 La musique du film l'Arche de Babel, qu'il a composée avec ses complices Olivier Stalla et Raphaël Imbert, est rejouée en ciné-concert lors du festival international du film d'Aubagne.
-En 2017 Il refait, en ciné-concert[29] la musique du film Elle(s) réalisée par Jason Roffe, au festival International du film d'Aubagne, avec Raphaël Imbert, Gregory Bretones, Bruno Carrese et Olivier Pinto.
+En 2017 Il refait, en ciné-concert la musique du film Elle(s) réalisée par Jason Roffe, au festival International du film d'Aubagne, avec Raphaël Imbert, Gregory Bretones, Bruno Carrese et Olivier Pinto.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Carrese</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Grand Prix de la ville de Biarritz en 1991 pour Traces
-Prix SNCF du polar 2001 pour Le Bal des cagoles[30]
+Prix SNCF du polar 2001 pour Le Bal des cagoles
 Prix spécial du jury et Prix de la technique au festival de St Tropez en 2004 pour Malaterra'
 Grand prix du festival du téléfilm européen d'Igualada en 2005 pour Malaterra
 Prix spécial du jury au festival de St Tropez 2005 pour Liberata
